--- a/Technical_Analysis_Report_BillTracker.xlsx
+++ b/Technical_Analysis_Report_BillTracker.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="900" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="1140" yWindow="900" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="BillTracker_Entities" sheetId="5" r:id="rId1"/>
     <sheet name="BillTracker.DataLayer" sheetId="4" r:id="rId2"/>
     <sheet name="BillTracker.BusinessLayer" sheetId="3" r:id="rId3"/>
-    <sheet name="BillTracker_Api" sheetId="2" r:id="rId4"/>
+    <sheet name="BillTracker_Service" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="125">
   <si>
     <t xml:space="preserve">Problem Statement </t>
   </si>
@@ -302,34 +302,109 @@
     <t>Connection : String</t>
   </si>
   <si>
-    <t>GetAllBillsAsync(): Task&lt;IEnumerable&lt;BillDetails&gt;&gt;</t>
-  </si>
-  <si>
-    <t>VerifyUser(UserLogin user) : Task&lt;User&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RegisterNewUser( User user) : Task&lt;String&gt;</t>
-  </si>
-  <si>
-    <t>SaveBillAsync(BillDetails billdetails) : Task&lt;bool&gt;</t>
-  </si>
-  <si>
-    <t>GetAllBillsByDueDateAsync(DateTime dueDate) : Task&lt;IEnumerable&lt;BillDetails&gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ValidateUser(UserLogin userCredentials) : Task&lt;ActionResult&lt;User&gt;&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NewUser(User user) : Task&lt;ActionResult&lt;String&gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GenerateBill(BillDetails billDetails) : Task&lt;ActionResult&lt;bool&gt;&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve"> GetAllBills() : &lt;ActionResult&lt;IEnumerable&lt;BillDetails&gt;&gt;&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> GetBillDate(DateTime duedate) : Task&lt;ActionResult&lt;IEnumerable&lt;BillDetails&gt;&gt;&gt;</t>
+    <t>Bill_DatabaseConnectionTest</t>
+  </si>
+  <si>
+    <t>User_DatabaseConnectionTest</t>
+  </si>
+  <si>
+    <t>BusinessTestFor_RegisterNewUser_Success</t>
+  </si>
+  <si>
+    <t>BusinessTestFor_ValidUserFound</t>
+  </si>
+  <si>
+    <t>BusinessTestFor_GenerateBill_Success</t>
+  </si>
+  <si>
+    <t>BusinessTestFor_ListOfPaidAndUnpaidBills</t>
+  </si>
+  <si>
+    <t>BusinessTestFor_ListBillsByDueDate</t>
+  </si>
+  <si>
+    <t>ExceptionTestFor_RegisterNewUser_Null_Failure</t>
+  </si>
+  <si>
+    <t>ExceptionTestFor_UserNotFound</t>
+  </si>
+  <si>
+    <t>ExceptionTestFor_GenerateBill_Null_Failure</t>
+  </si>
+  <si>
+    <t>ExceptionTestFor_ListOfPaidAndUnpaidBillsNotFound</t>
+  </si>
+  <si>
+    <t>ExceptionTestFor_ListBillsByDueDate_NotFound</t>
+  </si>
+  <si>
+    <t>FunctionalTestFor_RegisterNewUser</t>
+  </si>
+  <si>
+    <t>FunctionTestFor_ValidUserFound</t>
+  </si>
+  <si>
+    <t>FunctionallTestFor_GenerateBill</t>
+  </si>
+  <si>
+    <t>FunctionalTestFor_ListOfPaidAndUnpaidBills</t>
+  </si>
+  <si>
+    <t>FunctionalTestFor_ListBillsByDueDate</t>
+  </si>
+  <si>
+    <t>BoundaryTestFor_ValidUserEmailAsync</t>
+  </si>
+  <si>
+    <t>BoundaryTestFor_ValidUserNameLengthAsync</t>
+  </si>
+  <si>
+    <t>BoundaryTestFor_ValidUserNameAsync</t>
+  </si>
+  <si>
+    <t>BoundaryTestFor_ValidPasswordLengthAsync</t>
+  </si>
+  <si>
+    <t>BoundaryTestFor_BillTitleAsync</t>
+  </si>
+  <si>
+    <t>BoundaryTestFor_BillAmountAsync</t>
+  </si>
+  <si>
+    <t>BoundaryTestFor_BillDateOfEntryAsync</t>
+  </si>
+  <si>
+    <t>BoundaryTestFor_BillDueDateAsync</t>
+  </si>
+  <si>
+    <t>VerifyUser(UserLogin user) : User</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RegisterNewUser( User user) : String</t>
+  </si>
+  <si>
+    <t>SaveBillAsync(BillDetails billdetails) : bool</t>
+  </si>
+  <si>
+    <t>GetAllBillsAsync(): IEnumerable&lt;BillDetails&gt;</t>
+  </si>
+  <si>
+    <t>GetAllBillsByDueDateAsync(DateTime dueDate) : IEnumerable&lt;BillDetails&gt;</t>
+  </si>
+  <si>
+    <t>GetBillByDueDate(DateTime duedate) : ActionResult&lt;IEnumerable&lt;BillDetails&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GenerateBill(BillDetails billDetails) : ActionResult&lt;bool&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NewUser(User user) : ActionResult&lt;String&gt;</t>
+  </si>
+  <si>
+    <t>ValidateUser(UserLogin userCredentials) : &lt;ActionResult&lt;User&gt;</t>
   </si>
 </sst>
 </file>
@@ -739,7 +814,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A15"/>
     </sheetView>
   </sheetViews>
@@ -1136,13 +1211,13 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A15"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.875" bestFit="1" customWidth="1"/>
@@ -1479,6 +1554,12 @@
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1524,17 +1605,21 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A15"/>
+    <sheetView topLeftCell="C16" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
@@ -1692,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1700,7 +1785,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1708,7 +1793,7 @@
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1716,7 +1801,7 @@
         <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1724,7 +1809,7 @@
         <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1875,28 +1960,82 @@
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
@@ -1915,17 +2054,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A4" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
@@ -2083,7 +2223,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -2091,7 +2231,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -2099,7 +2239,7 @@
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -2107,7 +2247,7 @@
         <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -2115,7 +2255,7 @@
         <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -2267,27 +2407,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
